--- a/biology/Médecine/Acidurie_combinée_malonique_et_méthylmalonique/Acidurie_combinée_malonique_et_méthylmalonique.xlsx
+++ b/biology/Médecine/Acidurie_combinée_malonique_et_méthylmalonique/Acidurie_combinée_malonique_et_méthylmalonique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acidurie_combin%C3%A9e_malonique_et_m%C3%A9thylmalonique</t>
+          <t>Acidurie_combinée_malonique_et_méthylmalonique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acidurie combinée malonique et méthylmalonique (CMAMMA), également appelée acidémie combinée malonique et méthylmalonique, est une maladie métabolique héréditaire caractérisée par des taux élevés d'acide malonique et d'acide méthylmalonique[1]. Certains chercheurs ont émis l'hypothèse que la CMAMMA pourrait être l'une des formes les plus courantes d'acidémie méthylmalonique et peut-être l'une des erreurs innées du métabolisme les plus courantes[2]. Comme elle est rarement diagnostiquée, elle passe le plus souvent inaperçue[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acidurie combinée malonique et méthylmalonique (CMAMMA), également appelée acidémie combinée malonique et méthylmalonique, est une maladie métabolique héréditaire caractérisée par des taux élevés d'acide malonique et d'acide méthylmalonique. Certains chercheurs ont émis l'hypothèse que la CMAMMA pourrait être l'une des formes les plus courantes d'acidémie méthylmalonique et peut-être l'une des erreurs innées du métabolisme les plus courantes. Comme elle est rarement diagnostiquée, elle passe le plus souvent inaperçue,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acidurie_combin%C3%A9e_malonique_et_m%C3%A9thylmalonique</t>
+          <t>Acidurie_combinée_malonique_et_méthylmalonique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,24 +523,26 @@
           <t>Symptômes et signes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les phénotypes cliniques de la CMAMMA sont très hétérogènes et vont de symptômes asymptomatiques, légers à sévères[4],[5]. La physiopathologie sous-jacente n'est pas encore comprise[6]. Les symptômes suivants sont rapportés dans la littérature :
-acidose métabolique[7],[5],[8] ;
-coma[2],[6] ;
-hypoglycémie[2],[7],[6] ;
-convulsions[2],[7],[5],[6] ;
-maladie gastro-intestinale[5],[8] ;
-retard de développement[2],[5],[8] ;
-retard de la parole[1],[2],[4] ;
-retard de croissance[2] ;
-maladie psychiatrique[2] ;
-problèmes de mémoire[2] ;
-déclin cognitif[2] ;
-encéphalopathie[4] ;
-cardiomyopathie[7],[5],[8] ;
-caractéristiques dysmorphiques[5],[8].
-Lorsque les premiers symptômes apparaissent dans l'enfance, il s'agit plutôt de troubles métaboliques intermédiaires, alors que chez les adultes, il s'agit généralement de symptômes neurologiques[2],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les phénotypes cliniques de la CMAMMA sont très hétérogènes et vont de symptômes asymptomatiques, légers à sévères,. La physiopathologie sous-jacente n'est pas encore comprise. Les symptômes suivants sont rapportés dans la littérature :
+acidose métabolique ;
+coma, ;
+hypoglycémie ;
+convulsions ;
+maladie gastro-intestinale, ;
+retard de développement ;
+retard de la parole ;
+retard de croissance ;
+maladie psychiatrique ;
+problèmes de mémoire ;
+déclin cognitif ;
+encéphalopathie ;
+cardiomyopathie ;
+caractéristiques dysmorphiques,.
+Lorsque les premiers symptômes apparaissent dans l'enfance, il s'agit plutôt de troubles métaboliques intermédiaires, alors que chez les adultes, il s'agit généralement de symptômes neurologiques,.
 </t>
         </is>
       </c>
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acidurie_combin%C3%A9e_malonique_et_m%C3%A9thylmalonique</t>
+          <t>Acidurie_combinée_malonique_et_méthylmalonique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,9 +571,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La CMAMMA peut être divisée par causalité en deux troubles héréditaires distincts : l'un est un déficit de l'enzyme mitochondriale acyl-CoA synthétase membre de la famille 3, codée par le gène ACSF3 (OMIM # 614265) ; l'autre trouble est un déficit en malonyl-CoA décarboxylase codé par le gène MLYCD (OMIM # 248360)[1],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La CMAMMA peut être divisée par causalité en deux troubles héréditaires distincts : l'un est un déficit de l'enzyme mitochondriale acyl-CoA synthétase membre de la famille 3, codée par le gène ACSF3 (OMIM # 614265) ; l'autre trouble est un déficit en malonyl-CoA décarboxylase codé par le gène MLYCD (OMIM # 248360),.
 </t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acidurie_combin%C3%A9e_malonique_et_m%C3%A9thylmalonique</t>
+          <t>Acidurie_combinée_malonique_et_méthylmalonique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,17 +604,124 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En raison d'un large éventail de symptômes cliniques et du fait qu'elle échappe en grande partie aux programmes de dépistage néonatal, on pense que la CMAMMA est une affection insuffisamment reconnue[1],[7].
-Programmes de dépistage néonatal
-Étant donné que la CMAMMA due à l'ACSF3 n'entraîne pas d'accumulation de méthylmalonyl-CoA, de malonyl-CoA ou de propionyl-CoA, et qu'aucune anomalie n'est observée dans le profil d'acylcarnitine, la CMAMMA n'est pas détectée par les programmes standard de dépistage sanguin des nouveau-nés[5],[2],[7].
-Un cas particulier est celui de la province de Québec qui, en plus de l'analyse sanguine, procède également à un dépistage urinaire le 21e jour après la naissance grâce au Programme québécois de dépistage néonatal sanguin et urinaire. Cela rend la province de Québec intéressante pour la recherche sur le CMAMMA, car elle représente la seule cohorte de patients au monde sans biais de sélection[7].
-Rapport acide malonique/acide méthylmalonique
-En calculant le rapport acide malonique/acide méthylmalonique dans le plasma, on peut clairement distinguer une CMAMMA d'une acidémie méthylmalonique classique. Ceci est vrai pour les personnes qui répondent ou non à la vitamine B12 dans l'acidémie méthylmalonique. L'utilisation des valeurs d'acide malonique et d'acide méthylmalonique dans l'urine ne convient pas pour calculer ce rapport[1].
-Dans la CMAMMA due à l'ACSF3, le taux d'acide méthylamonique dépasse celui de l'acide malonique. En revanche, l'inverse est vrai pour la CMAMMA due à une déficience en malonyl-CoA[8],[7].
-Tests génétiques
-La CMAMMA peut être diagnostiquée par l'analyse des gènes ACSF3 et MLYCD. Le dépistage étendu des porteurs au cours d'un traitement de fertilité peut également identifier les porteurs de mutations du gène ACSF3[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison d'un large éventail de symptômes cliniques et du fait qu'elle échappe en grande partie aux programmes de dépistage néonatal, on pense que la CMAMMA est une affection insuffisamment reconnue,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acidurie_combinée_malonique_et_méthylmalonique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidurie_combin%C3%A9e_malonique_et_m%C3%A9thylmalonique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Programmes de dépistage néonatal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étant donné que la CMAMMA due à l'ACSF3 n'entraîne pas d'accumulation de méthylmalonyl-CoA, de malonyl-CoA ou de propionyl-CoA, et qu'aucune anomalie n'est observée dans le profil d'acylcarnitine, la CMAMMA n'est pas détectée par les programmes standard de dépistage sanguin des nouveau-nés.
+Un cas particulier est celui de la province de Québec qui, en plus de l'analyse sanguine, procède également à un dépistage urinaire le 21e jour après la naissance grâce au Programme québécois de dépistage néonatal sanguin et urinaire. Cela rend la province de Québec intéressante pour la recherche sur le CMAMMA, car elle représente la seule cohorte de patients au monde sans biais de sélection.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acidurie_combinée_malonique_et_méthylmalonique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidurie_combin%C3%A9e_malonique_et_m%C3%A9thylmalonique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rapport acide malonique/acide méthylmalonique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En calculant le rapport acide malonique/acide méthylmalonique dans le plasma, on peut clairement distinguer une CMAMMA d'une acidémie méthylmalonique classique. Ceci est vrai pour les personnes qui répondent ou non à la vitamine B12 dans l'acidémie méthylmalonique. L'utilisation des valeurs d'acide malonique et d'acide méthylmalonique dans l'urine ne convient pas pour calculer ce rapport.
+Dans la CMAMMA due à l'ACSF3, le taux d'acide méthylamonique dépasse celui de l'acide malonique. En revanche, l'inverse est vrai pour la CMAMMA due à une déficience en malonyl-CoA,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acidurie_combinée_malonique_et_méthylmalonique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidurie_combin%C3%A9e_malonique_et_m%C3%A9thylmalonique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tests génétiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La CMAMMA peut être diagnostiquée par l'analyse des gènes ACSF3 et MLYCD. Le dépistage étendu des porteurs au cours d'un traitement de fertilité peut également identifier les porteurs de mutations du gène ACSF3.
 </t>
         </is>
       </c>
